--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teiei/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61473D63-BDB1-2C4C-B839-795FE172B7E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2780" windowWidth="28240" windowHeight="16580" xr2:uid="{9B95C4C8-8AAB-8D49-9EA9-8E485A0A5EB4}"/>
+    <workbookView xWindow="180" yWindow="2775" windowWidth="28245" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,14 +78,42 @@
   </si>
   <si>
     <t>赵恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,12 +152,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -197,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -249,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -443,144 +468,233 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7274E26-A999-134C-8C59-386C41EE760D}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11" style="1"/>
+    <col min="3" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>101</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>43320</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="G2" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>102</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>43321</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="G3" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>103</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>43322</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="G4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>104</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>43323</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="G5" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>104</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>43324</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>105</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43325</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>106</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43326</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>107</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43332</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,38 @@
   </si>
   <si>
     <t>张通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水铭伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张永刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李兰青</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -697,6 +729,109 @@
         <v>48</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>108</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43344</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>109</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43346</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>110</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43357</v>
+      </c>
+      <c r="G12" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <v>111</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43361</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43363</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
